--- a/BE_LTD_Axis_UTR_Process/Data/Config.xlsx
+++ b/BE_LTD_Axis_UTR_Process/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL\Documents\UiPath\BE_LTD_Axis_UTR_Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL-User\Documents\GitHub\biologicale\BE_LTD_Axis_UTR_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B655B4-46A0-4BB8-A3EB-91834934C16C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ED2ADD-74E6-4CB5-84D6-2AEF585D9AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="154">
   <si>
     <t>Name</t>
   </si>
@@ -458,6 +458,51 @@
   </si>
   <si>
     <t>C:\Users\BRADSOL\Documents\UiPath\BE_LTD_Axis_UTR_Process\Data\Temp\ValidationFailedPDF\</t>
+  </si>
+  <si>
+    <t>DateColumnNameInVendorPaymentFile</t>
+  </si>
+  <si>
+    <t>Processed Date</t>
+  </si>
+  <si>
+    <t>DateColumnNameInMasterPaymentFile</t>
+  </si>
+  <si>
+    <t>VendorPaymentFileDateColumnNotFound_MailSubject</t>
+  </si>
+  <si>
+    <t>VendorPaymentFileDateColumnNotFound_MailBody</t>
+  </si>
+  <si>
+    <t>PaymentMasterFileDateColumnNotFound_MailSubject</t>
+  </si>
+  <si>
+    <t>PaymentMasterFileDateColumnNotFound_MailBody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXIS UTR Process -Date Column not found in Vendor Payment file </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT AXIS UTR Process couldn’t find Date Column name provided in Config file for Vendor Payments file for the process of " AXIS UTR Automation”. Hence stopping the bot&lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AXIS UTR Process -Date Column not found in Payment Master file </t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hello Team, &lt;/p&gt;
+&lt;p&gt;This is to notify you that our BOT AXIS UTR Process couldn’t find Date Column name provided in Config file for Payment Master file for the process of " AXIS UTR Automation”. Hence stopping the bot&lt;/p&gt;
+&lt;p&gt;Thanks &amp; Regards,&lt;/p&gt;
+&lt;p&gt;BE Ltd.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>BankAccountNumberColumnName</t>
+  </si>
+  <si>
+    <t>Bank A/C No.</t>
   </si>
 </sst>
 </file>
@@ -517,7 +562,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -529,6 +574,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -845,8 +893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -1158,9 +1206,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="36" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="37" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="35" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2102,8 +2171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z984"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -2468,11 +2537,41 @@
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="42" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="43" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="41" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A41" t="s">
+        <v>144</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A42" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="14.25" customHeight="1">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A44" t="s">
+        <v>146</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A45" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="47" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="48" spans="1:2" ht="14.25" customHeight="1"/>

--- a/BE_LTD_Axis_UTR_Process/Data/Config.xlsx
+++ b/BE_LTD_Axis_UTR_Process/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL-User\Documents\GitHub\biologicale\BE_LTD_Axis_UTR_Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92ED2ADD-74E6-4CB5-84D6-2AEF585D9AD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCA5A66-DB17-4646-8E9E-50E85D609E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="152">
   <si>
     <t>Name</t>
   </si>
@@ -67,9 +67,6 @@
     <t>ToEmailAdress</t>
   </si>
   <si>
-    <t>sagarreddy.shyamala@bradsol.com</t>
-  </si>
-  <si>
     <t>BankName</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>ToEmail</t>
   </si>
   <si>
-    <t>shyamalavidyasagar1@gmail.com</t>
-  </si>
-  <si>
     <t>Mail_Environment</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>Password</t>
   </si>
   <si>
-    <t>hqjylbvienkarxpb</t>
-  </si>
-  <si>
     <t>ExchangeDomain</t>
   </si>
   <si>
@@ -328,18 +319,9 @@
     <t>Description (Assets will always overwrite other config)</t>
   </si>
   <si>
-    <t>C:\Users\BRADSOL\Desktop\</t>
-  </si>
-  <si>
     <t>PdfSavingPath</t>
   </si>
   <si>
-    <t>Inbox</t>
-  </si>
-  <si>
-    <t>C:\Users\BRADSOL\Desktop\MasterFile.xlsx</t>
-  </si>
-  <si>
     <t>Filter</t>
   </si>
   <si>
@@ -364,12 +346,6 @@
     <t>VendorSubjectFilter</t>
   </si>
   <si>
-    <t>@SQL=urn:schemas:httpmail:subject LIKE '%Vendor_Payments%'</t>
-  </si>
-  <si>
-    <t>C:\Users\BRADSOL\Documents\GitHub\brad-uipath\BRADSOL_Reusable_Tasks\Send Mail\Send Mail.xaml</t>
-  </si>
-  <si>
     <t>VendorPaymentFileNotFoundinSubject</t>
   </si>
   <si>
@@ -382,9 +358,6 @@
     <t>BE_LTD Axis Process- Vendor Payment Unread Email not found</t>
   </si>
   <si>
-    <t>C:\Users\BRADSOL\Documents\GitHub\brad-uipath\BRADSOL_Reusable_Tasks\AppendingVendorData\Main.xaml</t>
-  </si>
-  <si>
     <t>Vendor_ReusableTaskPath</t>
   </si>
   <si>
@@ -440,24 +413,6 @@
   </si>
   <si>
     <t>Nothing</t>
-  </si>
-  <si>
-    <t>C:\Users\BRADSOL\Documents\UiPath\BE_LTD_Axis_UTR_Process\Data\</t>
-  </si>
-  <si>
-    <t>C:\Users\BRADSOL\Documents\UiPath\BE_LTD_Axis_UTR_Process\Data\Input\</t>
-  </si>
-  <si>
-    <t>C:\Users\BRADSOL\Documents\UiPath\BE_LTD_Axis_UTR_Process\Data\Output\</t>
-  </si>
-  <si>
-    <t>C:\Users\BRADSOL\Documents\UiPath\BE_LTD_Axis_UTR_Process\Data\Attachments\</t>
-  </si>
-  <si>
-    <t>C:\Users\BRADSOL\Documents\UiPath\BE_LTD_Axis_UTR_Process\Data\Temp\AttachmentNotFound\</t>
-  </si>
-  <si>
-    <t>C:\Users\BRADSOL\Documents\UiPath\BE_LTD_Axis_UTR_Process\Data\Temp\ValidationFailedPDF\</t>
   </si>
   <si>
     <t>DateColumnNameInVendorPaymentFile</t>
@@ -499,17 +454,56 @@
 &lt;p&gt;BE Ltd.&lt;/p&gt;</t>
   </si>
   <si>
-    <t>BankAccountNumberColumnName</t>
-  </si>
-  <si>
     <t>Bank A/C No.</t>
+  </si>
+  <si>
+    <t>AccountNumberColumnName</t>
+  </si>
+  <si>
+    <t>kalyan.gundu@bradsol.com</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL-User\Documents\GitHub\brad-uipath\BRADSOL_Reusable_Tasks\AppendingVendorData\Main.xaml</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL-User\Documents\GitHub\biologicale\BE_LTD_Axis_UTR_Process\Data\</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL-User\Documents\GitHub\biologicale\BE_LTD_Axis_UTR_Process\Data\Input\</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL-User\Documents\GitHub\biologicale\BE_LTD_Axis_UTR_Process\Data\Output\</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL-User\Documents\GitHub\biologicale\BE_LTD_Axis_UTR_Process\Data\Attachments\</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL-User\Documents\GitHub\biologicale\BE_LTD_Axis_UTR_Process\Data\Temp\AttachmentNotFound\</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL-User\Documents\GitHub\biologicale\BE_LTD_Axis_UTR_Process\Data\Temp\ValidationFailedPDF\</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL-User\Documents\GitHub\biologicale\BE_LTD_Axis_UTR_Process\BRADSOL_Reusable_Tasks\Send Mail\Send Mail.xaml</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL-User\Desktop\</t>
+  </si>
+  <si>
+    <t>C:\Users\BRADSOL-User\Desktop\Vendor Payaments MasterFile.xlsx</t>
+  </si>
+  <si>
+    <t>Biological E Ltd</t>
+  </si>
+  <si>
+    <t>@SQL=urn:schemas:httpmail:subject LIKE '%Vendor Payments%'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -541,6 +535,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -559,10 +559,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -577,8 +578,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -893,8 +899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z967"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -955,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
@@ -963,7 +969,7 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
@@ -971,266 +977,268 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>10</v>
+      <c r="B6" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
         <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="14.25" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="14.25" customHeight="1">
       <c r="A18" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="14.25" customHeight="1">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="14.25" customHeight="1">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="14.25" customHeight="1">
       <c r="A21" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="14.25" customHeight="1">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23" t="s">
-        <v>100</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="14.25" customHeight="1">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="14.25" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="14.25" customHeight="1">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="14.25" customHeight="1">
       <c r="A27" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" t="s">
-        <v>109</v>
+        <v>102</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B28" t="s">
-        <v>115</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>126</v>
-      </c>
-      <c r="B33">
-        <v>-195</v>
+        <v>117</v>
+      </c>
+      <c r="B33" s="9">
+        <v>-295</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
+        <v>124</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A35" t="s">
-        <v>152</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>153</v>
-      </c>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="14.25" customHeight="1"/>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="41" spans="1:2" ht="14.25" customHeight="1"/>
@@ -2162,8 +2170,12 @@
     <row r="967" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{E2160BA7-4E68-4FC0-9DCA-E4A01115C841}"/>
+    <hyperlink ref="B34" r:id="rId2" xr:uid="{66A4944B-76EF-4DAF-AC6C-D1A048AFAD17}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2219,131 +2231,131 @@
     </row>
     <row r="2" spans="1:26" ht="28.8">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="43.2">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -2351,98 +2363,98 @@
     </row>
     <row r="17" spans="1:3" ht="28.8">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B17" t="b">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B28">
         <v>587</v>
@@ -2450,107 +2462,107 @@
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="14.25" customHeight="1">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14.25" customHeight="1">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B34" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14.25" customHeight="1">
       <c r="A35" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="41" spans="1:2" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="14.25" customHeight="1">
       <c r="A42" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="14.25" customHeight="1">
@@ -2558,18 +2570,18 @@
     </row>
     <row r="44" spans="1:2" ht="14.25" customHeight="1">
       <c r="A44" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="14.25" customHeight="1">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="14.25" customHeight="1"/>
@@ -3538,13 +3550,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
